--- a/nmadb/481997.xlsx
+++ b/nmadb/481997.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="0" windowWidth="19440" windowHeight="14565"/>
+    <workbookView xWindow="525" yWindow="0" windowWidth="19440" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Treatments</t>
   </si>
@@ -29,9 +29,6 @@
     <t>Study id</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Harmful</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
   </si>
   <si>
     <t>study name</t>
-  </si>
-  <si>
-    <t>log Hazard ratio</t>
   </si>
   <si>
     <r>
@@ -219,15 +213,24 @@
   <si>
     <t>Glipizide</t>
   </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effect=log Hazard ratio</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,7 +375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -481,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,15 +658,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="8" bestFit="1" customWidth="1"/>
@@ -682,45 +683,45 @@
     <col min="14" max="14" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="16">
         <v>1979</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -744,12 +745,12 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="16">
         <v>1999</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
@@ -773,15 +774,15 @@
         <v>1</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="16">
         <v>1999</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -803,15 +804,15 @@
         <v>2</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="16">
         <v>2000</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -833,15 +834,15 @@
         <v>3</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="16">
         <v>2002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -863,15 +864,15 @@
         <v>4</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="16">
         <v>2002</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -893,15 +894,15 @@
         <v>5</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="16">
         <v>2003</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="9">
         <v>7</v>
@@ -923,15 +924,15 @@
         <v>6</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="16">
         <v>2004</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
@@ -954,15 +955,15 @@
         <v>7</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="16">
         <v>2005</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9">
         <v>9</v>
@@ -985,15 +986,15 @@
         <v>8</v>
       </c>
       <c r="M10" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>
@@ -1015,15 +1016,15 @@
         <v>9</v>
       </c>
       <c r="M11" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="9">
         <v>11</v>
@@ -1045,15 +1046,15 @@
         <v>10</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="16">
         <v>2006</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9">
         <v>12</v>
@@ -1075,15 +1076,15 @@
         <v>11</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="16">
         <v>2006</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="9">
         <v>13</v>
@@ -1105,12 +1106,12 @@
         <v>12</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9">
         <v>13</v>
@@ -1132,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9">
@@ -1162,16 +1163,16 @@
         <v>14</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1">
       <c r="A17" s="16">
         <v>2008</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
         <v>14</v>
@@ -1194,16 +1195,16 @@
         <v>15</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="3" customFormat="1">
       <c r="A18" s="16">
         <v>2008</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9">
@@ -1227,16 +1228,16 @@
         <v>16</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="17">
         <v>2009</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="10">
@@ -1261,14 +1262,14 @@
         <v>17</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="45">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="10">
@@ -1293,16 +1294,16 @@
         <v>18</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="30" customHeight="1">
       <c r="A21" s="17">
         <v>2009</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="10">
@@ -1327,15 +1328,15 @@
         <v>19</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="17">
         <v>2009</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="10">
@@ -1360,15 +1361,15 @@
         <v>20</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="17">
         <v>2009</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="10">
@@ -1392,12 +1393,12 @@
       <c r="L23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="17">
         <v>2009</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="10">
@@ -1422,12 +1423,12 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="3" customFormat="1">
       <c r="A25" s="17">
         <v>2010</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="10">
@@ -1449,16 +1450,18 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="M25" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="N25" s="15"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="10">
@@ -1481,12 +1484,12 @@
       <c r="K26" s="23"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="3" customFormat="1">
       <c r="A27" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="10">
@@ -1509,12 +1512,12 @@
       <c r="K27" s="23"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="15" customFormat="1">
       <c r="A28" s="17">
         <v>2010</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="10">
@@ -1540,12 +1543,12 @@
       <c r="N28"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="15" customFormat="1">
       <c r="A29" s="17">
         <v>2011</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="10">
@@ -1570,12 +1573,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="17">
         <v>2011</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="10">
@@ -1598,12 +1601,12 @@
       <c r="K30" s="22"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="3" customFormat="1">
       <c r="A31" s="17">
         <v>2011</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="10">
@@ -1629,12 +1632,12 @@
       <c r="N31" s="5"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="17">
         <v>2011</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="10">
@@ -1657,10 +1660,10 @@
       <c r="K32" s="23"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="3" customFormat="1">
       <c r="A33" s="17"/>
       <c r="B33" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="10">
@@ -1685,12 +1688,12 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="17">
         <v>2013</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="10">
@@ -1713,12 +1716,12 @@
       <c r="K34" s="23"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="5" customFormat="1">
       <c r="A35" s="17">
         <v>2013</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="9">
@@ -1744,7 +1747,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -1757,7 +1760,7 @@
       <c r="K36" s="23"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -1769,13 +1772,13 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="3" customFormat="1">
       <c r="A42" s="16"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1790,57 +1793,57 @@
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4">
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4">
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4">
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4">
       <c r="D68" s="10"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4">
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4">
       <c r="D70" s="10"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4">
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4">
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4">
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4">
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4">
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4">
       <c r="D80" s="10"/>
     </row>
   </sheetData>
@@ -1858,12 +1861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1875,12 +1878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
